--- a/01. PYTHON/01. PYTHON COURSE/01. GUVI/Python - GUVI.xlsx
+++ b/01. PYTHON/01. PYTHON COURSE/01. GUVI/Python - GUVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\01. PYTHON\01. PYTHON COURSE\01. GUVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A0ED6-082C-41CF-BB3E-7D5AF22C9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F9600E-0A11-449B-8E1B-812CF0A86A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="1" activeTab="8" xr2:uid="{F907E04D-26D8-404D-8A02-02CE0CE91D3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="1" activeTab="6" xr2:uid="{F907E04D-26D8-404D-8A02-02CE0CE91D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
@@ -14422,7 +14422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -14845,6 +14845,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -17178,7 +17179,7 @@
       <c r="A45" s="133" t="s">
         <v>1760</v>
       </c>
-      <c r="B45" s="202" t="s">
+      <c r="B45" s="203" t="s">
         <v>1769</v>
       </c>
       <c r="C45" s="37"/>
@@ -17187,42 +17188,42 @@
       <c r="A46" s="130" t="s">
         <v>881</v>
       </c>
-      <c r="B46" s="203"/>
+      <c r="B46" s="204"/>
       <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="129" t="s">
         <v>1763</v>
       </c>
-      <c r="B47" s="203"/>
+      <c r="B47" s="204"/>
       <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="129" t="s">
         <v>1764</v>
       </c>
-      <c r="B48" s="203"/>
+      <c r="B48" s="204"/>
       <c r="C48" s="37"/>
     </row>
     <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="129" t="s">
         <v>1765</v>
       </c>
-      <c r="B49" s="203"/>
+      <c r="B49" s="204"/>
       <c r="C49" s="37"/>
     </row>
     <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
         <v>613</v>
       </c>
-      <c r="B50" s="203"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="37"/>
     </row>
     <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
         <v>1013</v>
       </c>
-      <c r="B51" s="203"/>
+      <c r="B51" s="204"/>
       <c r="C51" s="37" t="s">
         <v>1781</v>
       </c>
@@ -17231,7 +17232,7 @@
       <c r="A52" s="130" t="s">
         <v>1761</v>
       </c>
-      <c r="B52" s="203"/>
+      <c r="B52" s="204"/>
       <c r="C52" s="37" t="s">
         <v>1782</v>
       </c>
@@ -17240,14 +17241,14 @@
       <c r="A53" s="132" t="s">
         <v>1777</v>
       </c>
-      <c r="B53" s="204"/>
+      <c r="B53" s="205"/>
       <c r="C53" s="37"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="B54" s="202" t="s">
+      <c r="B54" s="203" t="s">
         <v>1768</v>
       </c>
       <c r="C54" s="37"/>
@@ -17256,42 +17257,42 @@
       <c r="A55" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="203"/>
+      <c r="B55" s="204"/>
       <c r="C55" s="37"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="203"/>
+      <c r="B56" s="204"/>
       <c r="C56" s="37"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="203"/>
+      <c r="B57" s="204"/>
       <c r="C57" s="37"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="129" t="s">
         <v>1766</v>
       </c>
-      <c r="B58" s="203"/>
+      <c r="B58" s="204"/>
       <c r="C58" s="37"/>
     </row>
     <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="130" t="s">
         <v>1762</v>
       </c>
-      <c r="B59" s="203"/>
+      <c r="B59" s="204"/>
       <c r="C59" s="37"/>
     </row>
     <row r="60" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="132" t="s">
         <v>1767</v>
       </c>
-      <c r="B60" s="204"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23360,8 +23361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCB259C-E3CC-4A3B-BE94-B969789235E3}">
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24584,77 +24585,77 @@
       <c r="A146" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="B146" s="36"/>
+      <c r="B146" s="202"/>
       <c r="C146" s="37"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="B147" s="36"/>
+      <c r="B147" s="202"/>
       <c r="C147" s="37"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
         <v>740</v>
       </c>
-      <c r="B148" s="36"/>
+      <c r="B148" s="202"/>
       <c r="C148" s="37"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="88" t="s">
         <v>741</v>
       </c>
-      <c r="B149" s="36"/>
+      <c r="B149" s="202"/>
       <c r="C149" s="37"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="88" t="s">
         <v>742</v>
       </c>
-      <c r="B150" s="36"/>
+      <c r="B150" s="202"/>
       <c r="C150" s="37"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="88" t="s">
         <v>698</v>
       </c>
-      <c r="B151" s="36"/>
+      <c r="B151" s="202"/>
       <c r="C151" s="37"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="88" t="s">
         <v>743</v>
       </c>
-      <c r="B152" s="36"/>
+      <c r="B152" s="202"/>
       <c r="C152" s="37"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="88" t="s">
         <v>744</v>
       </c>
-      <c r="B153" s="36"/>
+      <c r="B153" s="202"/>
       <c r="C153" s="37"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="83" t="s">
         <v>745</v>
       </c>
-      <c r="B154" s="36"/>
+      <c r="B154" s="202"/>
       <c r="C154" s="37"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="83" t="s">
         <v>746</v>
       </c>
-      <c r="B155" s="36"/>
+      <c r="B155" s="202"/>
       <c r="C155" s="37"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="83" t="s">
         <v>747</v>
       </c>
-      <c r="B156" s="36"/>
+      <c r="B156" s="202"/>
       <c r="C156" s="37"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -25104,7 +25105,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="206" t="s">
         <v>128</v>
       </c>
     </row>
@@ -25113,7 +25114,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="205"/>
+      <c r="C6" s="206"/>
     </row>
     <row r="7" spans="1:3" s="25" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -25143,7 +25144,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="205" t="s">
+      <c r="C10" s="206" t="s">
         <v>128</v>
       </c>
     </row>
@@ -25152,7 +25153,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="36"/>
-      <c r="C11" s="205"/>
+      <c r="C11" s="206"/>
     </row>
     <row r="12" spans="1:3" s="25" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
@@ -26842,8 +26843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DEC2D2-D0B9-4BDF-861D-EEC5EBAB4C65}">
   <dimension ref="A1:C863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView topLeftCell="A349" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
